--- a/data/user.xlsx
+++ b/data/user.xlsx
@@ -4,21 +4,28 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="884"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" tabRatio="884"/>
   </bookViews>
   <sheets>
-    <sheet name="add_user" sheetId="12" r:id="rId1"/>
-    <sheet name="list_sc" sheetId="1" r:id="rId2"/>
-    <sheet name="invalid_setting_for_sc" sheetId="8" r:id="rId3"/>
-    <sheet name="invalid_option_for_sc" sheetId="9" r:id="rId4"/>
-    <sheet name="missing_parameter_for_sc" sheetId="10" r:id="rId5"/>
+    <sheet name="add_mgmt_user" sheetId="12" r:id="rId1"/>
+    <sheet name="mod_mgmt_user" sheetId="17" r:id="rId2"/>
+    <sheet name="add_snmp_user" sheetId="13" r:id="rId3"/>
+    <sheet name="mod_snmp_user" sheetId="19" r:id="rId4"/>
+    <sheet name="add_nas_user" sheetId="14" r:id="rId5"/>
+    <sheet name="mod_nas_user" sheetId="20" r:id="rId6"/>
+    <sheet name="list_user" sheetId="1" r:id="rId7"/>
+    <sheet name="list_user_by_verbose_mode" sheetId="15" r:id="rId8"/>
+    <sheet name="del_user" sheetId="21" r:id="rId9"/>
+    <sheet name="invalid_setting_for_user" sheetId="8" r:id="rId10"/>
+    <sheet name="invalid_option_for_user" sheetId="9" r:id="rId11"/>
+    <sheet name="missing_parameter_for_user" sheetId="10" r:id="rId12"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="264">
   <si>
     <t>expect result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,94 +57,937 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>all of sc should be listed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>specific sc should be listed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sc -i 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpareId</t>
-  </si>
-  <si>
-    <t>PdId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>send command</t>
+  </si>
+  <si>
+    <t>expect result</t>
+  </si>
+  <si>
+    <t>send command for checkpoint</t>
+  </si>
+  <si>
+    <t>checkpoint</t>
+  </si>
+  <si>
+    <t>user -a add -u Test_Test_Test_Test_Test_Test31 -p view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a add -t mgmt -u 1111_1111_1111_1111_1111_11130 -p maintenance -s "name=T2,status=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -u Test_Test_Test_Test_Test_Test31 -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -u 1111_1111_1111_1111_1111_11130 -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -u T_ -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Username: Test_Test_Test_Test_Test_Test31</t>
+  </si>
+  <si>
+    <t>Status: Enabled</t>
+  </si>
+  <si>
+    <t>Privilege: View</t>
+  </si>
+  <si>
+    <t>Email:</t>
+  </si>
+  <si>
+    <t>DisplayName:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Username: 1111_1111_1111_1111_1111_11130</t>
+  </si>
+  <si>
+    <t>Privilege: Maintenance</t>
+  </si>
+  <si>
+    <t>DisplayName: T2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email: </t>
+  </si>
+  <si>
+    <t>Username: T_</t>
+  </si>
+  <si>
+    <t>Status: Disabled</t>
+  </si>
+  <si>
+    <t>Privilege: Power</t>
+  </si>
+  <si>
+    <t>DisplayName: 1111_1111_1111_1111_1111_1111_1</t>
+  </si>
+  <si>
+    <t>Email: 11@11.11</t>
+  </si>
+  <si>
+    <t>Privilege: Super</t>
+  </si>
+  <si>
+    <t>DisplayName: t</t>
+  </si>
+  <si>
+    <t>user -a add -t snmp -u snmp_snmp_snmp_snmp_snmp_snmp31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a add -t snmp -u Snmp_snmp_snmp_snmp_snmp_snm30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a add -t snmp -u 1 -s "auth=md5,priv=aes"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mgmt user should be added by default setting and -u Test_Test_Test_Test_Test_Test31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mgmt user should be added by -u T_ -p power -s "name=1111_1111_1111_1111_1111_1111_1,status=disable,email=11@11.11"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mgmt user should be added by -u t -p super -s "name=t,status=disable,email=11@11.11"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mgmt user should be added by -u 1111_1111_1111_1111_1111_11130 -p maintenance -s "name=T2,status=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snmp user should be added by -u 1 -s "auth=md5,priv=aes"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a add -t snmp -u T2 -s "auth=sha,priv=des"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -t snmp -u 1 -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snmp user should be added by -u T2 -s "auth=sha,priv=des"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -t snmp -u T2 -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snmp user should be added by -u Snmp_snmp_snmp_snmp_snmp_snm30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -t snmp -u Snmp_snmp_snmp_snmp_snmp_snm30 -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snmp user should be added by -u snmp_snmp_snmp_snmp_snmp_snmp31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -t snmp -u snmp_snmp_snmp_snmp_snmp_snmp31 -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Username: 1</t>
+  </si>
+  <si>
+    <t>Auth: MD5</t>
+  </si>
+  <si>
+    <t>Priv: AES</t>
+  </si>
+  <si>
+    <t>Username: T2</t>
+  </si>
+  <si>
+    <t>Auth: SHA</t>
+  </si>
+  <si>
+    <t>Priv: DES</t>
+  </si>
+  <si>
+    <t>Username: Snmp_snmp_snmp_snmp_snmp_snm30</t>
+  </si>
+  <si>
+    <t>Auth: N/A</t>
+  </si>
+  <si>
+    <t>Priv: N/A</t>
+  </si>
+  <si>
+    <t>Username: snmp_snmp_snmp_snmp_snmp_snmp31</t>
+  </si>
+  <si>
+    <t>user -a add -t mgmt -u 1 -p super -s "name=t,status=disable,email=11@11.11"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a add -t nas -u test_test_test_test_test_test31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -t nas -v -u 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -t nas -v -u T2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -t nas -v -u test_test_test_test_test_nas30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nas user should be added by -u test_test_test_test_test_test31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -t nas -v -u test_test_test_test_test_test31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">UserName: 1 </t>
+  </si>
+  <si>
+    <t>user -a add -t nas -u T2 -s "group=test_users,department=new_group,phone=0123456789,email=12@11.23"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nas user should be added by T2 -s "group=test_users,department=new_group,phone=0123456789,email=12@11.23"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Email: 12@11.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nas user should be added by -u 1 -s "group=users,department=default_group,phone=test_number,email=12@11.23,name=123"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DisplayName: 123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Telephone: test_number</t>
+  </si>
+  <si>
+    <t>Department: default_group</t>
+  </si>
+  <si>
+    <t>PriGroupName: users</t>
+  </si>
+  <si>
+    <t>UserName: T2</t>
+  </si>
+  <si>
+    <t>Telephone: 0123456789</t>
+  </si>
+  <si>
+    <t>Department: new_group</t>
+  </si>
+  <si>
+    <t>PriGroupName: test_users</t>
+  </si>
+  <si>
+    <t>UserName: test_test_test_test_test_nas30</t>
+  </si>
+  <si>
+    <t>Department: 1</t>
+  </si>
+  <si>
+    <t>UserName: test_test_test_test_test_test31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -u 1 -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Username: 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a add -t nas -u 1 -s "group=users,department=default_group,phone=test_number,email=12@11.23,name=123"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all of mgmt type user should be listed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -u 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -t nas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -t snmp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all of nas type user should be listed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all of snmp type user should be listed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specific mgmt type user should be listed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specific nas type user should be listed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specific snmp type user should be listed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -t nas -u 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -t snmp -u 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -t mgmt -u 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Location</t>
   </si>
   <si>
     <t>Status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sc test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sc -a test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sc -a start test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sc -a start -i test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sc -i test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sc -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sc -a -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sc -a start -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sc -i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sc -a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">sc -a start </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">sc -a start -i </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>send command</t>
-  </si>
-  <si>
-    <t>expect result</t>
-  </si>
-  <si>
-    <t>send command for checkpoint</t>
-  </si>
-  <si>
-    <t>checkpoint</t>
-  </si>
-  <si>
-    <t>user -a add -u newuser -p view -s"name=NewUser,</t>
+  </si>
+  <si>
+    <t>Privilege</t>
+  </si>
+  <si>
+    <t>DisplayName</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Telephone</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Auth</t>
+  </si>
+  <si>
+    <t>Priv</t>
+  </si>
+  <si>
+    <t>Permission</t>
+  </si>
+  <si>
+    <t>user -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -t nas -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">user -t snmp -v </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">user -u 1 -v </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -t mgmt -u 1 -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -t nas -u 1 -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -t snmp -u 1 -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all of mgmt type user should be listed by verbose mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all of nas type user should be listed by verbose mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all of snmp type user should be listed by verbose mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specific mgmt type user should be listed by verbose mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specific nas type user should be listed by verbose mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specific snmp type user should be listed by verbose mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Username:</t>
+  </si>
+  <si>
+    <t>Status:</t>
+  </si>
+  <si>
+    <t>Location:</t>
+  </si>
+  <si>
+    <t>Privilege:</t>
+  </si>
+  <si>
+    <t>DisplayName:</t>
+  </si>
+  <si>
+    <t>UserName:</t>
+  </si>
+  <si>
+    <t>Telephone:</t>
+  </si>
+  <si>
+    <t>Department:</t>
+  </si>
+  <si>
+    <t>PriGroupName:</t>
+  </si>
+  <si>
+    <t>SecGroupName:</t>
+  </si>
+  <si>
+    <t>EngineId:</t>
+  </si>
+  <si>
+    <t>Permission:</t>
+  </si>
+  <si>
+    <t>Auth:</t>
+  </si>
+  <si>
+    <t>Priv:</t>
+  </si>
+  <si>
+    <t>Type:</t>
+  </si>
+  <si>
+    <t>user -a add -t mgmt -u T_ -p power -s "name=1111_1111_1111_1111_1111_1111_1,status=disable,email=11@11.11"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a mod -u 1 -p view -s "name=1111_1111_1111_1111_1111_test31,status=disable,email=11@11.11"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a mod -u 1 -p maintenance -s "name=1111_1111_1111_1111_1111_test3,status=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mgmt user should be modified by -p view -s "name=1111_1111_1111_1111_1111_test31,status=disable,email=11@11.11"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mgmt user should be modified by -p maintenance -s "name=1111_1111_1111_1111_1111_test3,status=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a mod -u 1 -p power -s "name=T1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mgmt user should be modified by -p power -s "name=T1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mgmt user should be modified by -p view -s "name=t"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DisplayName: 1111_1111_1111_1111_1111_test31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DisplayName: 1111_1111_1111_1111_1111_test3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DisplayName: T1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DisplayName: t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status: Enabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Privilege: Super</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a mod -u 1 -p super -s "name=t"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a mod -t snmp -u snmp_snmp_snmp_snmp_snmp_snmp31 -s "auth=sha,priv=des"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a mod -t snmp -u 1 -s "auth=md5,priv=aes"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snmp user should be modified by "auth=md5,priv=aes"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a mod -t snmp -u 1 -s "auth=sha,priv=des"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snmp user should be modified by "auth=sha,priv=des"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no password snmp user should be modified by "auth=sha,priv=des"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nas user should be modified by "group=test_users,department=default_group,phone=test_number,email=ab@cd.ef,name=1"</t>
+  </si>
+  <si>
+    <t>nas user should be modified by "group=users,department=new_group,phone=0123456789,name=T1"</t>
+  </si>
+  <si>
+    <t>nas user should be modified by "name=test_test_test_test_test_tes30"</t>
+  </si>
+  <si>
+    <t>nas user should be modified by "name=test_test_test_test_test_test31"</t>
+  </si>
+  <si>
+    <t>user -a mod -t nas -u 1 -s "group=test_users,department=default_group,phone=test_number,email=ab@cd.ef,name=1"</t>
+  </si>
+  <si>
+    <t>user -a mod -t nas -u 1 -s "group=users,department=new_group,phone=0123456789,name=T1"</t>
+  </si>
+  <si>
+    <t>user -a mod -t nas -u 1 -s "name=test_test_test_test_test_tes30"</t>
+  </si>
+  <si>
+    <t>user -a mod -t nas -u 1 -s "name=test_test_test_test_test_test31"</t>
+  </si>
+  <si>
+    <t>user -t nas -v -u 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Email: ab@cd.ef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DisplayName: 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department: new_group </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DisplayName: T1 </t>
+  </si>
+  <si>
+    <t>DisplayName: test_test_test_test_test_tes30</t>
+  </si>
+  <si>
+    <t>DisplayName: test_test_test_test_test_test31</t>
+  </si>
+  <si>
+    <t>user -a del -u T_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a del -t nas -u T2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a del -t snmp -u T2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a del -t mgmt -u 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specific user should be deleted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specific mgmt type user should be deleted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specific nas type user should be deleted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specific snmp type user should be deleted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -u T_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -t mgmt -u 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -t nas -u T2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -t snmp -u T2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -u test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid username</t>
+  </si>
+  <si>
+    <t>user -t nas -u test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -t snmp -u test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User is not found</t>
+  </si>
+  <si>
+    <t>user -a add test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a add -t test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a add -u #$% -p view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a add -u test_test_test_test_test_test_32 -p view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting parameters too long</t>
+  </si>
+  <si>
+    <t>user -a add -t nas -u test_test_test_test_test_test_32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a mod test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a mod -u test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a mod -u 1111_1111_1111_1111_1111_11130 -p test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(super|power|maintenance|view)</t>
+  </si>
+  <si>
+    <t>user -a mod -u 1111_1111_1111_1111_1111_11130 -s "status=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(enable|disable)</t>
+  </si>
+  <si>
+    <t>user -a add -u test -p view -s "status=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a add -t snmp -u test_test_test_test_test_test_32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a add -t snmp -u test -s "auth=test,priv=des"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a add -t snmp -u test -s "auth=md5,priv=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(des|aes)</t>
+  </si>
+  <si>
+    <t>(md5|sha)</t>
+  </si>
+  <si>
+    <t>user -a mod -t test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(mgmt|snmp|nas)</t>
+  </si>
+  <si>
+    <t>user -t test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a mod -t nas test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id contain only alphanumeric characters and underscores</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a mod -t snmp -u 1 -s "priv=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a mod -t snmp -u 1 -s "auth=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a del test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a del -u test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a del -t nas -u test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a del -t snmp -u test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a mod -t nas -u 1 -s "phone=test#$%&amp;*"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a mod -t nas -u 1 -s "group=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid input group name</t>
+  </si>
+  <si>
+    <t>user -a mod -t snmp test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -t nas -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -t snmp -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a add -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a add -t nas -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a add -t snmp -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a mod -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a mod -u -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a del -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a del -t nas -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a del -t snmp -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">user -u </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">user -t </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">user -t nas -u </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">user -t snmp -u </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">user -a add </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a add -u test -t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">user -a add -u test -p </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a add -u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">user -a mod </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">user -a mod -u </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">user -a mod -u 1111_1111_1111_1111_1111_11130 -p </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">user -a mod -u 1111_1111_1111_1111_1111_11130 -s </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a mod -t nas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a mod -t nas -u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a mod -t nas -u 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a mod -t snmp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a mod -t snmp -u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a mod -t snmp -u 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a del</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a del -u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a del -t nas -u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a del -t snmp -u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a add -t nas -u test_test_test_test_test_nas30 -s "department=1,phone=123456000"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nas user should be added by -u test_test_test_test_test_nas30 -s "department=1,phone=123456000"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Telephone: 123456000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid option for the command or the action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Missing parameter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -485,37 +1335,140 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="52.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="109" customWidth="1"/>
+    <col min="2" max="2" width="118" customWidth="1"/>
+    <col min="3" max="3" width="47.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F4" t="s">
         <v>28</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G4" t="s">
         <v>29</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
         <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -525,73 +1478,741 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.75" customWidth="1"/>
+    <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B22" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B28" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B29" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B30" t="s">
+        <v>189</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N47" sqref="N47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B12" t="s">
+        <v>262</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="54.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="90.625" customWidth="1"/>
+    <col min="2" max="2" width="110.125" customWidth="1"/>
+    <col min="3" max="3" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -603,65 +2224,113 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="32.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56" customWidth="1"/>
+    <col min="2" max="2" width="65.25" customWidth="1"/>
+    <col min="3" max="3" width="56" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.5" customWidth="1"/>
+    <col min="5" max="6" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>15</v>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -673,112 +2342,893 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="A39" sqref="A39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="82.125" customWidth="1"/>
+    <col min="2" max="2" width="65.25" customWidth="1"/>
+    <col min="3" max="3" width="56" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="108.5" customWidth="1"/>
+    <col min="2" max="2" width="95.125" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="42.75" customWidth="1"/>
+    <col min="5" max="6" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="112" customWidth="1"/>
+    <col min="2" max="2" width="111.625" customWidth="1"/>
+    <col min="3" max="3" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.5" customWidth="1"/>
+    <col min="2" max="2" width="42.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>20</v>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>86</v>
+      </c>
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>88</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+      <c r="C3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>91</v>
+      </c>
+      <c r="C4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="32.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.875" customWidth="1"/>
+    <col min="1" max="1" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.625" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>23</v>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>118</v>
+      </c>
+      <c r="C2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>112</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>119</v>
+      </c>
+      <c r="C3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I3" t="s">
+        <v>125</v>
+      </c>
+      <c r="J3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>113</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>120</v>
+      </c>
+      <c r="C4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>121</v>
+      </c>
+      <c r="C5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H7" t="s">
+        <v>132</v>
+      </c>
+      <c r="I7" t="s">
+        <v>125</v>
+      </c>
+      <c r="J7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H8" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="23" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/user.xlsx
+++ b/data/user.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" tabRatio="884"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" tabRatio="884" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="add_mgmt_user" sheetId="12" r:id="rId1"/>
@@ -236,10 +236,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>user -a add -t nas -u test_test_test_test_test_test31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>user -t nas -v -u 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -252,10 +248,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nas user should be added by -u test_test_test_test_test_test31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>user -t nas -v -u test_test_test_test_test_test31</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -310,10 +302,6 @@
     <t>Department: 1</t>
   </si>
   <si>
-    <t>UserName: test_test_test_test_test_test31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>user -u 1 -v</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -988,6 +976,16 @@
   </si>
   <si>
     <t>Missing parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nas user should be added by -u name_name_name_name_name_name31</t>
+  </si>
+  <si>
+    <t>UserName: name_name_name_name_name_name31</t>
+  </si>
+  <si>
+    <t>user -a add -t nas -u name_name_name_name_name_name31</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1337,7 +1335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
@@ -1421,7 +1419,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
         <v>37</v>
@@ -1453,10 +1451,10 @@
         <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
         <v>27</v>
@@ -1503,7 +1501,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -1511,42 +1509,42 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -1554,7 +1552,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -1562,75 +1560,75 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B12" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B13" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -1638,7 +1636,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -1646,40 +1644,40 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -1687,15 +1685,15 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B22" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
@@ -1703,7 +1701,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
@@ -1711,29 +1709,29 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
@@ -1741,26 +1739,26 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B28" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B29" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B30" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -1794,7 +1792,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -1802,7 +1800,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -1810,7 +1808,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1818,7 +1816,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1826,7 +1824,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1834,7 +1832,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -1842,7 +1840,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -1850,7 +1848,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -1858,7 +1856,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -1866,7 +1864,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -1874,10 +1872,10 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B12" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -1910,15 +1908,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -1926,7 +1924,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -1934,7 +1932,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -1942,7 +1940,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -1950,7 +1948,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -1958,7 +1956,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -1966,7 +1964,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -1974,7 +1972,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -1982,7 +1980,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -1990,7 +1988,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -1998,7 +1996,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -2006,7 +2004,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -2014,7 +2012,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
@@ -2022,7 +2020,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
@@ -2030,7 +2028,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
@@ -2038,7 +2036,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
@@ -2046,7 +2044,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
@@ -2054,7 +2052,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
@@ -2062,7 +2060,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
@@ -2070,7 +2068,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
@@ -2078,7 +2076,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
@@ -2125,16 +2123,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E2" t="s">
         <v>27</v>
@@ -2148,16 +2146,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
@@ -2171,16 +2169,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
@@ -2194,22 +2192,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G5" t="s">
         <v>30</v>
@@ -2373,10 +2371,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C2" t="s">
         <v>42</v>
@@ -2390,10 +2388,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C3" t="s">
         <v>42</v>
@@ -2407,10 +2405,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C4" t="s">
         <v>48</v>
@@ -2433,8 +2431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2465,94 +2463,94 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" t="s">
         <v>70</v>
       </c>
-      <c r="C2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>71</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>72</v>
-      </c>
-      <c r="H2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" t="s">
         <v>75</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>76</v>
-      </c>
-      <c r="F3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>263</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>261</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>262</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2598,88 +2596,88 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E3" t="s">
         <v>169</v>
       </c>
-      <c r="E3" t="s">
-        <v>172</v>
-      </c>
       <c r="F3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" t="s">
         <v>166</v>
       </c>
-      <c r="B4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D4" t="s">
-        <v>169</v>
-      </c>
       <c r="E4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2728,169 +2726,169 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" t="s">
         <v>98</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>99</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>100</v>
-      </c>
-      <c r="F2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" t="s">
         <v>102</v>
       </c>
-      <c r="E3" t="s">
-        <v>105</v>
-      </c>
       <c r="F3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" t="s">
         <v>107</v>
-      </c>
-      <c r="E4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F4" t="s">
-        <v>109</v>
-      </c>
-      <c r="G4" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" t="s">
         <v>98</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G5" t="s">
         <v>99</v>
-      </c>
-      <c r="E5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F5" t="s">
-        <v>101</v>
-      </c>
-      <c r="G5" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" t="s">
         <v>97</v>
       </c>
-      <c r="B6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
         <v>98</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G6" t="s">
         <v>99</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H6" t="s">
         <v>100</v>
-      </c>
-      <c r="F6" t="s">
-        <v>101</v>
-      </c>
-      <c r="G6" t="s">
-        <v>102</v>
-      </c>
-      <c r="H6" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" t="s">
         <v>102</v>
       </c>
-      <c r="E7" t="s">
-        <v>105</v>
-      </c>
       <c r="F7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G8" t="s">
         <v>107</v>
-      </c>
-      <c r="E8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F8" t="s">
-        <v>109</v>
-      </c>
-      <c r="G8" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2940,25 +2938,25 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" t="s">
         <v>124</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>125</v>
-      </c>
-      <c r="E2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G2" t="s">
-        <v>128</v>
       </c>
       <c r="H2" t="s">
         <v>20</v>
@@ -2966,83 +2964,83 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G3" t="s">
         <v>128</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J3" t="s">
         <v>130</v>
-      </c>
-      <c r="G3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H3" t="s">
-        <v>132</v>
-      </c>
-      <c r="I3" t="s">
-        <v>125</v>
-      </c>
-      <c r="J3" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G4" t="s">
         <v>134</v>
       </c>
-      <c r="D4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>135</v>
-      </c>
-      <c r="F4" t="s">
-        <v>136</v>
-      </c>
-      <c r="G4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H4" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" t="s">
         <v>121</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5" t="s">
         <v>124</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G5" t="s">
         <v>125</v>
-      </c>
-      <c r="E5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F5" t="s">
-        <v>127</v>
-      </c>
-      <c r="G5" t="s">
-        <v>128</v>
       </c>
       <c r="H5" t="s">
         <v>20</v>
@@ -3050,25 +3048,25 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" t="s">
         <v>121</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" t="s">
         <v>124</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G6" t="s">
         <v>125</v>
-      </c>
-      <c r="E6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F6" t="s">
-        <v>127</v>
-      </c>
-      <c r="G6" t="s">
-        <v>128</v>
       </c>
       <c r="H6" t="s">
         <v>20</v>
@@ -3076,60 +3074,60 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G7" t="s">
         <v>128</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
+        <v>129</v>
+      </c>
+      <c r="I7" t="s">
+        <v>122</v>
+      </c>
+      <c r="J7" t="s">
         <v>130</v>
-      </c>
-      <c r="G7" t="s">
-        <v>131</v>
-      </c>
-      <c r="H7" t="s">
-        <v>132</v>
-      </c>
-      <c r="I7" t="s">
-        <v>125</v>
-      </c>
-      <c r="J7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G8" t="s">
         <v>134</v>
       </c>
-      <c r="D8" t="s">
-        <v>124</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="H8" t="s">
         <v>135</v>
-      </c>
-      <c r="F8" t="s">
-        <v>136</v>
-      </c>
-      <c r="G8" t="s">
-        <v>137</v>
-      </c>
-      <c r="H8" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3144,7 +3142,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3172,13 +3170,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D2" t="s">
         <v>98</v>
@@ -3186,13 +3184,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D3" t="s">
         <v>98</v>
@@ -3200,30 +3198,30 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/data/user.xlsx
+++ b/data/user.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" tabRatio="884" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" tabRatio="884" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="add_mgmt_user" sheetId="12" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="265">
   <si>
     <t>expect result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -248,10 +248,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>user -t nas -v -u test_test_test_test_test_test31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">UserName: 1 </t>
   </si>
   <si>
@@ -586,9 +582,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nas user should be modified by "group=test_users,department=default_group,phone=test_number,email=ab@cd.ef,name=1"</t>
-  </si>
-  <si>
     <t>nas user should be modified by "group=users,department=new_group,phone=0123456789,name=T1"</t>
   </si>
   <si>
@@ -598,9 +591,6 @@
     <t>nas user should be modified by "name=test_test_test_test_test_test31"</t>
   </si>
   <si>
-    <t>user -a mod -t nas -u 1 -s "group=test_users,department=default_group,phone=test_number,email=ab@cd.ef,name=1"</t>
-  </si>
-  <si>
     <t>user -a mod -t nas -u 1 -s "group=users,department=new_group,phone=0123456789,name=T1"</t>
   </si>
   <si>
@@ -979,13 +969,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>UserName: name_name_name_name_name_name31</t>
+  </si>
+  <si>
+    <t>user -a add -t nas -u name_name_name_name_name_name31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>nas user should be added by -u name_name_name_name_name_name31</t>
-  </si>
-  <si>
-    <t>UserName: name_name_name_name_name_name31</t>
-  </si>
-  <si>
-    <t>user -a add -t nas -u name_name_name_name_name_name31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -t nas -v -u name_name_name_name_name_name31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a mod -t nas -u 1 -s "group=test_users,department=default_group,phone=123456789,email=ab@cd.ef,name=1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nas user should be modified by "group=test_users,department=default_group,phone=123456789,email=ab@cd.ef,name=1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Telephone: 123456789</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1336,7 +1343,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1419,7 +1426,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
         <v>37</v>
@@ -1451,10 +1458,10 @@
         <v>38</v>
       </c>
       <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" t="s">
         <v>79</v>
-      </c>
-      <c r="D5" t="s">
-        <v>80</v>
       </c>
       <c r="E5" t="s">
         <v>27</v>
@@ -1501,7 +1508,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -1509,42 +1516,42 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -1552,7 +1559,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -1560,75 +1567,75 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B10" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B13" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -1636,7 +1643,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -1644,40 +1651,40 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -1685,15 +1692,15 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B22" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
@@ -1701,7 +1708,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
@@ -1709,29 +1716,29 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
@@ -1739,26 +1746,26 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B28" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B29" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B30" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -1792,7 +1799,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -1800,7 +1807,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -1808,7 +1815,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1816,7 +1823,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1824,7 +1831,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1832,7 +1839,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -1840,7 +1847,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -1848,7 +1855,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -1856,7 +1863,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -1864,7 +1871,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -1872,10 +1879,10 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B12" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -1908,15 +1915,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -1924,7 +1931,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -1932,7 +1939,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -1940,7 +1947,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -1948,7 +1955,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -1956,7 +1963,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -1964,7 +1971,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -1972,7 +1979,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -1980,7 +1987,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -1988,7 +1995,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -1996,7 +2003,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -2004,7 +2011,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -2012,7 +2019,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
@@ -2020,7 +2027,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
@@ -2028,7 +2035,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
@@ -2036,7 +2043,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
@@ -2044,7 +2051,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
@@ -2052,7 +2059,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
@@ -2060,7 +2067,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
@@ -2068,7 +2075,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
@@ -2076,7 +2083,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
@@ -2123,16 +2130,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E2" t="s">
         <v>27</v>
@@ -2146,16 +2153,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
@@ -2169,16 +2176,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" t="s">
         <v>141</v>
       </c>
-      <c r="B4" t="s">
-        <v>142</v>
-      </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
@@ -2192,22 +2199,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" t="s">
         <v>147</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>148</v>
-      </c>
-      <c r="F5" t="s">
-        <v>149</v>
       </c>
       <c r="G5" t="s">
         <v>30</v>
@@ -2371,10 +2378,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" t="s">
         <v>152</v>
-      </c>
-      <c r="B2" t="s">
-        <v>153</v>
       </c>
       <c r="C2" t="s">
         <v>42</v>
@@ -2388,10 +2395,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" t="s">
         <v>154</v>
-      </c>
-      <c r="B3" t="s">
-        <v>155</v>
       </c>
       <c r="C3" t="s">
         <v>42</v>
@@ -2405,10 +2412,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C4" t="s">
         <v>48</v>
@@ -2431,15 +2438,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="108.5" customWidth="1"/>
     <col min="2" max="2" width="95.125" customWidth="1"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="54.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.75" customWidth="1"/>
     <col min="5" max="6" width="23.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.25" bestFit="1" customWidth="1"/>
@@ -2463,94 +2470,94 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" t="s">
         <v>69</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>70</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>71</v>
-      </c>
-      <c r="I2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
         <v>65</v>
-      </c>
-      <c r="B3" t="s">
-        <v>66</v>
       </c>
       <c r="C3" t="s">
         <v>61</v>
       </c>
       <c r="D3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" t="s">
         <v>73</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>74</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>75</v>
-      </c>
-      <c r="G3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C4" t="s">
         <v>62</v>
       </c>
       <c r="D4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" t="s">
+        <v>255</v>
+      </c>
+      <c r="F4" t="s">
         <v>77</v>
       </c>
-      <c r="E4" t="s">
-        <v>258</v>
-      </c>
-      <c r="F4" t="s">
-        <v>78</v>
-      </c>
       <c r="G4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C5" t="s">
         <v>261</v>
       </c>
-      <c r="C5" t="s">
-        <v>63</v>
-      </c>
       <c r="D5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2564,17 +2571,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="112" customWidth="1"/>
+    <col min="1" max="1" width="109.375" customWidth="1"/>
     <col min="2" max="2" width="111.625" customWidth="1"/>
     <col min="3" max="3" width="30.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.75" customWidth="1"/>
     <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.25" bestFit="1" customWidth="1"/>
@@ -2596,88 +2603,88 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>161</v>
+        <v>262</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>263</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G2" t="s">
         <v>70</v>
       </c>
-      <c r="G2" t="s">
-        <v>71</v>
-      </c>
       <c r="H2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C3" t="s">
         <v>60</v>
       </c>
       <c r="D3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3" t="s">
         <v>166</v>
       </c>
-      <c r="E3" t="s">
-        <v>169</v>
-      </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" t="s">
         <v>163</v>
       </c>
-      <c r="B4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D4" t="s">
-        <v>166</v>
-      </c>
       <c r="E4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C5" t="s">
         <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2726,169 +2733,169 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
         <v>82</v>
       </c>
-      <c r="B2" t="s">
-        <v>83</v>
-      </c>
       <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s">
         <v>95</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>96</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>97</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>98</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>99</v>
-      </c>
-      <c r="H2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" t="s">
         <v>101</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" t="s">
         <v>99</v>
-      </c>
-      <c r="E3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G3" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" t="s">
         <v>104</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>105</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>106</v>
-      </c>
-      <c r="G4" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" t="s">
         <v>95</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>96</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>97</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>98</v>
-      </c>
-      <c r="G5" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" t="s">
         <v>94</v>
       </c>
-      <c r="B6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>95</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>96</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>97</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>98</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>99</v>
-      </c>
-      <c r="H6" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" t="s">
         <v>101</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" t="s">
         <v>99</v>
-      </c>
-      <c r="E7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" t="s">
         <v>104</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>105</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>106</v>
-      </c>
-      <c r="G8" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2938,25 +2945,25 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" t="s">
         <v>121</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>122</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>123</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>124</v>
-      </c>
-      <c r="G2" t="s">
-        <v>125</v>
       </c>
       <c r="H2" t="s">
         <v>20</v>
@@ -2964,83 +2971,83 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" t="s">
         <v>127</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>128</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J3" t="s">
         <v>129</v>
-      </c>
-      <c r="I3" t="s">
-        <v>122</v>
-      </c>
-      <c r="J3" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" t="s">
         <v>131</v>
       </c>
-      <c r="D4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>132</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>133</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>134</v>
-      </c>
-      <c r="H4" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" t="s">
         <v>121</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>122</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>123</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>124</v>
-      </c>
-      <c r="G5" t="s">
-        <v>125</v>
       </c>
       <c r="H5" t="s">
         <v>20</v>
@@ -3048,25 +3055,25 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" t="s">
         <v>121</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>122</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>123</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>124</v>
-      </c>
-      <c r="G6" t="s">
-        <v>125</v>
       </c>
       <c r="H6" t="s">
         <v>20</v>
@@ -3074,60 +3081,60 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G7" t="s">
         <v>127</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>128</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
+        <v>121</v>
+      </c>
+      <c r="J7" t="s">
         <v>129</v>
-      </c>
-      <c r="I7" t="s">
-        <v>122</v>
-      </c>
-      <c r="J7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" t="s">
         <v>120</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>131</v>
       </c>
-      <c r="D8" t="s">
-        <v>121</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>132</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>133</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>134</v>
-      </c>
-      <c r="H8" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3170,58 +3177,58 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/data/user.xlsx
+++ b/data/user.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" tabRatio="884" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" tabRatio="884" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="add_mgmt_user" sheetId="12" r:id="rId1"/>
@@ -263,17 +263,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nas user should be added by -u 1 -s "group=users,department=default_group,phone=test_number,email=12@11.23,name=123"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DisplayName: 123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Telephone: test_number</t>
-  </si>
-  <si>
     <t>Department: default_group</t>
   </si>
   <si>
@@ -306,10 +299,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>user -a add -t nas -u 1 -s "group=users,department=default_group,phone=test_number,email=12@11.23,name=123"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>user</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -989,6 +978,18 @@
   </si>
   <si>
     <t>nas user should be modified by "group=test_users,department=default_group,phone=123456789,email=ab@cd.ef,name=1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Telephone: 123456789</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a add -t nas -u 1 -s "group=users,department=default_group,phone=123456789,email=12@11.23,name=123"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nas user should be added by -u 1 -s "group=users,department=default_group,phone=123456789,email=12@11.23,name=123"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1426,7 +1427,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s">
         <v>37</v>
@@ -1458,10 +1459,10 @@
         <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E5" t="s">
         <v>27</v>
@@ -1508,7 +1509,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -1516,42 +1517,42 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -1559,7 +1560,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -1567,75 +1568,75 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B10" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B13" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -1643,7 +1644,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -1651,40 +1652,40 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -1692,15 +1693,15 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B22" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
@@ -1708,7 +1709,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
@@ -1716,29 +1717,29 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
@@ -1746,26 +1747,26 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B28" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B29" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B30" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -1799,7 +1800,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -1807,7 +1808,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -1815,7 +1816,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1823,7 +1824,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1831,7 +1832,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1839,7 +1840,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -1847,7 +1848,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -1855,7 +1856,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -1863,7 +1864,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -1871,7 +1872,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -1879,10 +1880,10 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B12" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -1915,15 +1916,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -1931,7 +1932,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -1939,7 +1940,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -1947,7 +1948,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -1955,7 +1956,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -1963,7 +1964,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -1971,7 +1972,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -1979,7 +1980,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -1987,7 +1988,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -1995,7 +1996,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -2003,7 +2004,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -2011,7 +2012,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -2019,7 +2020,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
@@ -2027,7 +2028,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
@@ -2035,7 +2036,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
@@ -2043,7 +2044,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
@@ -2051,7 +2052,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
@@ -2059,7 +2060,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
@@ -2067,7 +2068,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
@@ -2075,7 +2076,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
@@ -2083,7 +2084,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
@@ -2130,16 +2131,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E2" t="s">
         <v>27</v>
@@ -2153,16 +2154,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
@@ -2176,16 +2177,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
@@ -2199,22 +2200,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G5" t="s">
         <v>30</v>
@@ -2378,10 +2379,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C2" t="s">
         <v>42</v>
@@ -2395,10 +2396,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C3" t="s">
         <v>42</v>
@@ -2412,10 +2413,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C4" t="s">
         <v>48</v>
@@ -2438,8 +2439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2470,10 +2471,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>262</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>263</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -2485,16 +2486,16 @@
         <v>66</v>
       </c>
       <c r="F2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H2" t="s">
         <v>68</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>69</v>
-      </c>
-      <c r="H2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -2508,56 +2509,56 @@
         <v>61</v>
       </c>
       <c r="D3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" t="s">
         <v>72</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>73</v>
-      </c>
-      <c r="F3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C4" t="s">
         <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2571,7 +2572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -2603,88 +2604,88 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C3" t="s">
         <v>60</v>
       </c>
       <c r="D3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E3" t="s">
         <v>163</v>
       </c>
-      <c r="E3" t="s">
-        <v>166</v>
-      </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" t="s">
         <v>160</v>
       </c>
-      <c r="B4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D4" t="s">
-        <v>163</v>
-      </c>
       <c r="E4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C5" t="s">
         <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2733,169 +2734,169 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" t="s">
         <v>94</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>95</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>96</v>
-      </c>
-      <c r="F2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" t="s">
         <v>98</v>
       </c>
-      <c r="E3" t="s">
-        <v>101</v>
-      </c>
       <c r="F3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" t="s">
         <v>103</v>
-      </c>
-      <c r="E4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G4" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" t="s">
         <v>94</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G5" t="s">
         <v>95</v>
-      </c>
-      <c r="E5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" t="s">
         <v>93</v>
       </c>
-      <c r="B6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
         <v>94</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G6" t="s">
         <v>95</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H6" t="s">
         <v>96</v>
-      </c>
-      <c r="F6" t="s">
-        <v>97</v>
-      </c>
-      <c r="G6" t="s">
-        <v>98</v>
-      </c>
-      <c r="H6" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" t="s">
         <v>98</v>
       </c>
-      <c r="E7" t="s">
-        <v>101</v>
-      </c>
       <c r="F7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" t="s">
         <v>103</v>
-      </c>
-      <c r="E8" t="s">
-        <v>104</v>
-      </c>
-      <c r="F8" t="s">
-        <v>105</v>
-      </c>
-      <c r="G8" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2945,25 +2946,25 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" t="s">
         <v>120</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>121</v>
-      </c>
-      <c r="E2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G2" t="s">
-        <v>124</v>
       </c>
       <c r="H2" t="s">
         <v>20</v>
@@ -2971,83 +2972,83 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" t="s">
         <v>124</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J3" t="s">
         <v>126</v>
-      </c>
-      <c r="G3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I3" t="s">
-        <v>121</v>
-      </c>
-      <c r="J3" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G4" t="s">
         <v>130</v>
       </c>
-      <c r="D4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>131</v>
-      </c>
-      <c r="F4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G4" t="s">
-        <v>133</v>
-      </c>
-      <c r="H4" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" t="s">
         <v>117</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" t="s">
         <v>120</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G5" t="s">
         <v>121</v>
-      </c>
-      <c r="E5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G5" t="s">
-        <v>124</v>
       </c>
       <c r="H5" t="s">
         <v>20</v>
@@ -3055,25 +3056,25 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" t="s">
         <v>117</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" t="s">
         <v>120</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G6" t="s">
         <v>121</v>
-      </c>
-      <c r="E6" t="s">
-        <v>122</v>
-      </c>
-      <c r="F6" t="s">
-        <v>123</v>
-      </c>
-      <c r="G6" t="s">
-        <v>124</v>
       </c>
       <c r="H6" t="s">
         <v>20</v>
@@ -3081,60 +3082,60 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" t="s">
         <v>124</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
+        <v>125</v>
+      </c>
+      <c r="I7" t="s">
+        <v>118</v>
+      </c>
+      <c r="J7" t="s">
         <v>126</v>
-      </c>
-      <c r="G7" t="s">
-        <v>127</v>
-      </c>
-      <c r="H7" t="s">
-        <v>128</v>
-      </c>
-      <c r="I7" t="s">
-        <v>121</v>
-      </c>
-      <c r="J7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G8" t="s">
         <v>130</v>
       </c>
-      <c r="D8" t="s">
-        <v>120</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="H8" t="s">
         <v>131</v>
-      </c>
-      <c r="F8" t="s">
-        <v>132</v>
-      </c>
-      <c r="G8" t="s">
-        <v>133</v>
-      </c>
-      <c r="H8" t="s">
-        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -3177,58 +3178,58 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/data/user.xlsx
+++ b/data/user.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" tabRatio="884" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" tabRatio="884" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="add_mgmt_user" sheetId="12" r:id="rId1"/>
@@ -472,9 +472,6 @@
     <t>SecGroupName:</t>
   </si>
   <si>
-    <t>EngineId:</t>
-  </si>
-  <si>
     <t>Permission:</t>
   </si>
   <si>
@@ -994,6 +991,10 @@
   </si>
   <si>
     <t>Telephone: 123456789</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EngineID:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1427,7 +1428,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B4" t="s">
         <v>37</v>
@@ -1509,7 +1510,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -1517,42 +1518,42 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" t="s">
         <v>179</v>
-      </c>
-      <c r="B3" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -1560,7 +1561,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -1568,75 +1569,75 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B10" t="s">
         <v>187</v>
-      </c>
-      <c r="B10" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -1644,7 +1645,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -1652,40 +1653,40 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -1693,15 +1694,15 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B22" t="s">
         <v>214</v>
-      </c>
-      <c r="B22" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
@@ -1709,7 +1710,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
@@ -1717,29 +1718,29 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
@@ -1747,26 +1748,26 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B30" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -1800,7 +1801,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -1808,7 +1809,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -1816,7 +1817,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1824,7 +1825,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1832,7 +1833,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1840,7 +1841,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -1848,7 +1849,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -1856,7 +1857,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -1864,7 +1865,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -1872,7 +1873,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -1880,10 +1881,10 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -1916,15 +1917,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -1932,7 +1933,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -1940,7 +1941,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -1948,7 +1949,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -1956,7 +1957,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -1964,7 +1965,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -1972,7 +1973,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -1980,7 +1981,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -1988,7 +1989,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -1996,7 +1997,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -2004,7 +2005,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -2012,7 +2013,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -2020,7 +2021,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
@@ -2028,7 +2029,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
@@ -2036,7 +2037,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
@@ -2044,7 +2045,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
@@ -2052,7 +2053,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
@@ -2060,7 +2061,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
@@ -2068,7 +2069,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
@@ -2076,7 +2077,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
@@ -2084,7 +2085,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
@@ -2131,16 +2132,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C2" t="s">
         <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E2" t="s">
         <v>27</v>
@@ -2154,16 +2155,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C3" t="s">
         <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
@@ -2177,16 +2178,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" t="s">
         <v>137</v>
-      </c>
-      <c r="B4" t="s">
-        <v>138</v>
       </c>
       <c r="C4" t="s">
         <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
@@ -2200,22 +2201,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C5" t="s">
         <v>76</v>
       </c>
       <c r="D5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" t="s">
         <v>143</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>144</v>
-      </c>
-      <c r="F5" t="s">
-        <v>145</v>
       </c>
       <c r="G5" t="s">
         <v>30</v>
@@ -2379,10 +2380,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" t="s">
         <v>148</v>
-      </c>
-      <c r="B2" t="s">
-        <v>149</v>
       </c>
       <c r="C2" t="s">
         <v>42</v>
@@ -2396,10 +2397,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" t="s">
         <v>150</v>
-      </c>
-      <c r="B3" t="s">
-        <v>151</v>
       </c>
       <c r="C3" t="s">
         <v>42</v>
@@ -2413,10 +2414,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C4" t="s">
         <v>48</v>
@@ -2439,8 +2440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2471,10 +2472,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" t="s">
         <v>262</v>
-      </c>
-      <c r="B2" t="s">
-        <v>263</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -2489,7 +2490,7 @@
         <v>67</v>
       </c>
       <c r="G2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H2" t="s">
         <v>68</v>
@@ -2523,10 +2524,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B4" t="s">
         <v>250</v>
-      </c>
-      <c r="B4" t="s">
-        <v>251</v>
       </c>
       <c r="C4" t="s">
         <v>62</v>
@@ -2535,7 +2536,7 @@
         <v>74</v>
       </c>
       <c r="E4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F4" t="s">
         <v>75</v>
@@ -2546,16 +2547,16 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B5" t="s">
         <v>256</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>257</v>
       </c>
-      <c r="C5" t="s">
-        <v>258</v>
-      </c>
       <c r="D5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E5" t="s">
         <v>69</v>
@@ -2604,22 +2605,22 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" t="s">
         <v>259</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F2" t="s">
         <v>260</v>
-      </c>
-      <c r="C2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F2" t="s">
-        <v>261</v>
       </c>
       <c r="G2" t="s">
         <v>68</v>
@@ -2630,25 +2631,25 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C3" t="s">
         <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F3" t="s">
         <v>71</v>
       </c>
       <c r="G3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H3" t="s">
         <v>69</v>
@@ -2656,36 +2657,36 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" t="s">
         <v>159</v>
       </c>
-      <c r="D4" t="s">
-        <v>160</v>
-      </c>
       <c r="E4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C5" t="s">
         <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2910,8 +2911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3010,22 +3011,22 @@
         <v>113</v>
       </c>
       <c r="C4" t="s">
-        <v>127</v>
+        <v>264</v>
       </c>
       <c r="D4" t="s">
         <v>117</v>
       </c>
       <c r="E4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" t="s">
         <v>128</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>129</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>130</v>
-      </c>
-      <c r="H4" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
@@ -3120,22 +3121,22 @@
         <v>116</v>
       </c>
       <c r="C8" t="s">
-        <v>127</v>
+        <v>264</v>
       </c>
       <c r="D8" t="s">
         <v>117</v>
       </c>
       <c r="E8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8" t="s">
         <v>128</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>129</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>130</v>
-      </c>
-      <c r="H8" t="s">
-        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -3178,13 +3179,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D2" t="s">
         <v>94</v>
@@ -3192,13 +3193,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D3" t="s">
         <v>94</v>
@@ -3206,13 +3207,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D4" t="s">
         <v>91</v>
@@ -3220,13 +3221,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D5" t="s">
         <v>91</v>

--- a/data/user.xlsx
+++ b/data/user.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" tabRatio="884" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" tabRatio="884" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="add_mgmt_user" sheetId="12" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="266">
   <si>
     <t>expect result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -995,6 +995,10 @@
   </si>
   <si>
     <t>EngineID:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkpoint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1487,44 +1491,53 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="63.75" customWidth="1"/>
-    <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C1" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B3" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>203</v>
       </c>
@@ -1532,42 +1545,57 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B5" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>185</v>
       </c>
@@ -1575,18 +1603,24 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B10" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>195</v>
       </c>
@@ -1594,26 +1628,35 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B12" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B13" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>197</v>
       </c>
@@ -1621,10 +1664,13 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>198</v>
       </c>
@@ -1632,26 +1678,35 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>191</v>
       </c>
@@ -1659,10 +1714,13 @@
         <v>6</v>
       </c>
       <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>193</v>
       </c>
@@ -1670,10 +1728,13 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>201</v>
       </c>
@@ -1681,42 +1742,57 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>213</v>
       </c>
       <c r="B22" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>212</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>215</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>207</v>
       </c>
@@ -1724,10 +1800,13 @@
         <v>6</v>
       </c>
       <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>206</v>
       </c>
@@ -1735,38 +1814,53 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>208</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>209</v>
       </c>
       <c r="B28" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C28" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>210</v>
       </c>
       <c r="B29" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C29" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>211</v>
       </c>
       <c r="B30" t="s">
+        <v>179</v>
+      </c>
+      <c r="C30" t="s">
         <v>179</v>
       </c>
     </row>
@@ -1779,112 +1873,149 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N47" sqref="N47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="28.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.5" customWidth="1"/>
+    <col min="3" max="3" width="49.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>216</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>217</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>218</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>219</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>220</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>221</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>224</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>226</v>
       </c>
       <c r="B12" t="s">
         <v>252</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1895,200 +2026,270 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="54.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.875" customWidth="1"/>
+    <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>227</v>
       </c>
       <c r="B2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>228</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>229</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>230</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>231</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>234</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>233</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>232</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>235</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>236</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>237</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>238</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>239</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>240</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>242</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C17" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>243</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C18" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>244</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C19" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C20" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>246</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>247</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>248</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -2911,7 +3112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>

--- a/data/user.xlsx
+++ b/data/user.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" tabRatio="884" firstSheet="6" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" tabRatio="884" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="add_mgmt_user" sheetId="12" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="264">
   <si>
     <t>expect result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -270,9 +270,6 @@
     <t>Department: default_group</t>
   </si>
   <si>
-    <t>PriGroupName: users</t>
-  </si>
-  <si>
     <t>UserName: T2</t>
   </si>
   <si>
@@ -282,9 +279,6 @@
     <t>Department: new_group</t>
   </si>
   <si>
-    <t>PriGroupName: test_users</t>
-  </si>
-  <si>
     <t>UserName: test_test_test_test_test_nas30</t>
   </si>
   <si>
@@ -372,12 +366,6 @@
     <t>UserName</t>
   </si>
   <si>
-    <t>Department</t>
-  </si>
-  <si>
-    <t>Telephone</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -466,12 +454,6 @@
     <t>Department:</t>
   </si>
   <si>
-    <t>PriGroupName:</t>
-  </si>
-  <si>
-    <t>SecGroupName:</t>
-  </si>
-  <si>
     <t>Permission:</t>
   </si>
   <si>
@@ -1000,6 +982,19 @@
   <si>
     <t>checkpoint</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrimaryGroup: users</t>
+  </si>
+  <si>
+    <t>PrimaryGroup: test_users</t>
+  </si>
+  <si>
+    <t>PrimaryGroup:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SecondryGroups:</t>
   </si>
 </sst>
 </file>
@@ -1349,7 +1344,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1432,7 +1427,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s">
         <v>37</v>
@@ -1464,10 +1459,10 @@
         <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E5" t="s">
         <v>27</v>
@@ -1512,12 +1507,12 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -1528,18 +1523,18 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -1548,34 +1543,34 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B5" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C5" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B6" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C6" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -1586,7 +1581,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -1597,7 +1592,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -1606,23 +1601,23 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B10" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C10" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -1631,34 +1626,34 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B12" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C12" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B13" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C13" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -1667,12 +1662,12 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -1681,12 +1676,12 @@
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -1697,7 +1692,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -1708,7 +1703,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -1717,12 +1712,12 @@
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -1731,12 +1726,12 @@
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -1745,12 +1740,12 @@
         <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -1761,18 +1756,18 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B22" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C22" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
@@ -1783,7 +1778,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
@@ -1794,7 +1789,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
@@ -1803,12 +1798,12 @@
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
@@ -1817,12 +1812,12 @@
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
@@ -1833,35 +1828,35 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B28" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C28" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B29" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C29" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B30" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C30" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -1894,12 +1889,12 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -1910,7 +1905,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -1921,7 +1916,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1932,7 +1927,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1943,7 +1938,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1954,7 +1949,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -1965,7 +1960,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -1976,7 +1971,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -1987,7 +1982,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -1998,7 +1993,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -2009,10 +2004,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B12" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -2028,8 +2023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2047,249 +2042,249 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -2333,16 +2328,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E2" t="s">
         <v>27</v>
@@ -2356,16 +2351,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
@@ -2379,16 +2374,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
@@ -2402,22 +2397,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5" t="s">
         <v>138</v>
-      </c>
-      <c r="C5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E5" t="s">
-        <v>143</v>
-      </c>
-      <c r="F5" t="s">
-        <v>144</v>
       </c>
       <c r="G5" t="s">
         <v>30</v>
@@ -2581,10 +2576,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C2" t="s">
         <v>42</v>
@@ -2598,10 +2593,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C3" t="s">
         <v>42</v>
@@ -2615,10 +2610,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C4" t="s">
         <v>48</v>
@@ -2641,8 +2636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2673,10 +2668,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -2691,13 +2686,13 @@
         <v>67</v>
       </c>
       <c r="G2" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="H2" t="s">
         <v>68</v>
       </c>
       <c r="I2" t="s">
-        <v>69</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -2711,56 +2706,56 @@
         <v>61</v>
       </c>
       <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" t="s">
         <v>70</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>71</v>
       </c>
-      <c r="F3" t="s">
-        <v>72</v>
-      </c>
       <c r="G3" t="s">
-        <v>73</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B4" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C4" t="s">
         <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E4" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G4" t="s">
-        <v>69</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B5" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C5" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D5" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -2774,8 +2769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2806,88 +2801,88 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F2" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G2" t="s">
         <v>68</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C3" t="s">
         <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="H3" t="s">
-        <v>69</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" t="s">
         <v>153</v>
       </c>
-      <c r="C4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D4" t="s">
-        <v>159</v>
-      </c>
       <c r="E4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C5" t="s">
         <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E5" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2902,7 +2897,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2936,169 +2931,157 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" t="s">
         <v>91</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>92</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>93</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>94</v>
-      </c>
-      <c r="G2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" t="s">
         <v>81</v>
       </c>
-      <c r="B3" t="s">
-        <v>83</v>
-      </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" t="s">
         <v>82</v>
       </c>
-      <c r="B4" t="s">
-        <v>84</v>
-      </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" t="s">
         <v>91</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>92</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>93</v>
-      </c>
-      <c r="F5" t="s">
-        <v>94</v>
-      </c>
-      <c r="G5" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" t="s">
         <v>90</v>
       </c>
-      <c r="B6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>91</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>92</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>93</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>94</v>
-      </c>
-      <c r="G6" t="s">
-        <v>95</v>
-      </c>
-      <c r="H6" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" t="s">
         <v>89</v>
       </c>
-      <c r="B8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" t="s">
-        <v>91</v>
-      </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3112,8 +3095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3127,7 +3110,7 @@
     <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.5" bestFit="1" customWidth="1"/>
@@ -3148,25 +3131,25 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" t="s">
         <v>117</v>
-      </c>
-      <c r="D2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G2" t="s">
-        <v>121</v>
       </c>
       <c r="H2" t="s">
         <v>20</v>
@@ -3174,83 +3157,83 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H3" t="s">
-        <v>125</v>
+        <v>262</v>
       </c>
       <c r="I3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="J3" t="s">
-        <v>126</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D4" t="s">
         <v>113</v>
       </c>
-      <c r="C4" t="s">
-        <v>264</v>
-      </c>
-      <c r="D4" t="s">
-        <v>117</v>
-      </c>
       <c r="E4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" t="s">
         <v>114</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5" t="s">
         <v>117</v>
-      </c>
-      <c r="D5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E5" t="s">
-        <v>119</v>
-      </c>
-      <c r="F5" t="s">
-        <v>120</v>
-      </c>
-      <c r="G5" t="s">
-        <v>121</v>
       </c>
       <c r="H5" t="s">
         <v>20</v>
@@ -3258,25 +3241,25 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" t="s">
         <v>114</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G6" t="s">
         <v>117</v>
-      </c>
-      <c r="D6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E6" t="s">
-        <v>119</v>
-      </c>
-      <c r="F6" t="s">
-        <v>120</v>
-      </c>
-      <c r="G6" t="s">
-        <v>121</v>
       </c>
       <c r="H6" t="s">
         <v>20</v>
@@ -3284,60 +3267,60 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H7" t="s">
-        <v>125</v>
+        <v>262</v>
       </c>
       <c r="I7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="J7" t="s">
-        <v>126</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C8" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E8" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F8" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G8" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H8" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3380,58 +3363,58 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" t="s">
         <v>168</v>
       </c>
-      <c r="B3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C3" t="s">
-        <v>174</v>
-      </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C4" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C5" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/data/user.xlsx
+++ b/data/user.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" tabRatio="884" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" tabRatio="884" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="add_mgmt_user" sheetId="12" r:id="rId1"/>
@@ -69,29 +69,10 @@
     <t>checkpoint</t>
   </si>
   <si>
-    <t>user -a add -u Test_Test_Test_Test_Test_Test31 -p view</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user -a add -t mgmt -u 1111_1111_1111_1111_1111_11130 -p maintenance -s "name=T2,status=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user -u Test_Test_Test_Test_Test_Test31 -v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user -u 1111_1111_1111_1111_1111_11130 -v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>user -u T_ -v</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Username: Test_Test_Test_Test_Test_Test31</t>
-  </si>
-  <si>
     <t>Status: Enabled</t>
   </si>
   <si>
@@ -105,9 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Username: 1111_1111_1111_1111_1111_11130</t>
-  </si>
-  <si>
     <t>Privilege: Maintenance</t>
   </si>
   <si>
@@ -138,22 +116,10 @@
     <t>DisplayName: t</t>
   </si>
   <si>
-    <t>user -a add -t snmp -u snmp_snmp_snmp_snmp_snmp_snmp31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user -a add -t snmp -u Snmp_snmp_snmp_snmp_snmp_snm30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>user -a add -t snmp -u 1 -s "auth=md5,priv=aes"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mgmt user should be added by default setting and -u Test_Test_Test_Test_Test_Test31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mgmt user should be added by -u T_ -p power -s "name=1111_1111_1111_1111_1111_1111_1,status=disable,email=11@11.11"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -162,10 +128,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mgmt user should be added by -u 1111_1111_1111_1111_1111_11130 -p maintenance -s "name=T2,status=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>snmp user should be added by -u 1 -s "auth=md5,priv=aes"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -186,22 +148,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>snmp user should be added by -u Snmp_snmp_snmp_snmp_snmp_snm30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user -t snmp -u Snmp_snmp_snmp_snmp_snmp_snm30 -v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>snmp user should be added by -u snmp_snmp_snmp_snmp_snmp_snmp31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user -t snmp -u snmp_snmp_snmp_snmp_snmp_snmp31 -v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Username: 1</t>
   </si>
   <si>
@@ -220,18 +166,12 @@
     <t>Priv: DES</t>
   </si>
   <si>
-    <t>Username: Snmp_snmp_snmp_snmp_snmp_snm30</t>
-  </si>
-  <si>
     <t>Auth: N/A</t>
   </si>
   <si>
     <t>Priv: N/A</t>
   </si>
   <si>
-    <t>Username: snmp_snmp_snmp_snmp_snmp_snmp31</t>
-  </si>
-  <si>
     <t>user -a add -t mgmt -u 1 -p super -s "name=t,status=disable,email=11@11.11"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -244,10 +184,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>user -t nas -v -u test_test_test_test_test_nas30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">UserName: 1 </t>
   </si>
   <si>
@@ -279,9 +215,6 @@
     <t>Department: new_group</t>
   </si>
   <si>
-    <t>UserName: test_test_test_test_test_nas30</t>
-  </si>
-  <si>
     <t>Department: 1</t>
   </si>
   <si>
@@ -526,10 +459,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>user -a mod -t snmp -u snmp_snmp_snmp_snmp_snmp_snmp31 -s "auth=sha,priv=des"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>user -a mod -t snmp -u 1 -s "auth=md5,priv=aes"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -672,10 +601,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>user -a add -u test_test_test_test_test_test_32 -p view</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Setting parameters too long</t>
   </si>
   <si>
@@ -691,17 +616,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>user -a mod -u 1111_1111_1111_1111_1111_11130 -p test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(super|power|maintenance|view)</t>
   </si>
   <si>
-    <t>user -a mod -u 1111_1111_1111_1111_1111_11130 -s "status=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(enable|disable)</t>
   </si>
   <si>
@@ -869,14 +786,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">user -a mod -u 1111_1111_1111_1111_1111_11130 -p </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">user -a mod -u 1111_1111_1111_1111_1111_11130 -s </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>user -a mod -t nas</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -917,14 +826,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>user -a add -t nas -u test_test_test_test_test_nas30 -s "department=1,phone=123456000"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nas user should be added by -u test_test_test_test_test_nas30 -s "department=1,phone=123456000"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Telephone: 123456000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -937,21 +838,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UserName: name_name_name_name_name_name31</t>
-  </si>
-  <si>
-    <t>user -a add -t nas -u name_name_name_name_name_name31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nas user should be added by -u name_name_name_name_name_name31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user -t nas -v -u name_name_name_name_name_name31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>user -a mod -t nas -u 1 -s "group=test_users,department=default_group,phone=123456789,email=ab@cd.ef,name=1"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -995,6 +881,126 @@
   </si>
   <si>
     <t>SecondryGroups:</t>
+  </si>
+  <si>
+    <t>user -a add -t mgmt -u 1111_1111_1111_1111_1124 -p maintenance -s "name=T2,status=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a add -u Test_Test_Test_Test_Tes25 -p view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mgmt user should be added by default setting and -u Test_Test_Test_Test_Tes25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mgmt user should be added by -u 1111_1111_1111_1111_1124 -p maintenance -s "name=T2,status=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -u Test_Test_Test_Test_Tes25 -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -u 1111_1111_1111_1111_1124 -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a add -t snmp -u Snmp_snmp_snmp_snmp_sn24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a add -t snmp -u snmp_snmp_snmp_snmp_snm25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snmp user should be added by -u snmp_snmp_snmp_snmp_snm25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snmp user should be added by -u Snmp_snmp_snmp_snmp_sn24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -t snmp -u Snmp_snmp_snmp_snmp_sn24 -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -t snmp -u snmp_snmp_snmp_snmp_snm25 -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Username: snmp_snmp_snmp_snmp_snm25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Username: Snmp_snmp_snmp_snmp_sn24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a mod -t snmp -u snmp_snmp_snmp_snmp_snm25 -s "auth=sha,priv=des"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a add -t nas -u test_test_test_test_te24 -s "department=1,phone=123456000"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a add -t nas -u name_name_name_name_nam25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nas user should be added by -u test_test_test_test_te24 -s "department=1,phone=123456000"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -t nas -v -u test_test_test_test_te24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserName: test_test_test_test_te24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nas user should be added by -u name_name_name_name_nam25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -t nas -v -u name_name_name_name_nam25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserName: name_name_name_name_nam25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Username: Test_Test_Test_Test_Tes25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Username: 1111_1111_1111_1111_1124</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a mod -u 1111_1111_1111_1111_1124 -p test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a mod -u 1111_1111_1111_1111_1124 -s "status=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user -a add -u test_test_test_test_test26 -p view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">user -a mod -u 1111_1111_1111_1111_1124 -p </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">user -a mod -u 1111_1111_1111_1111_1124 -s </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1343,8 +1349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1375,106 +1381,106 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>235</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>236</v>
       </c>
       <c r="C2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1489,7 +1495,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1507,12 +1513,12 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>259</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -1523,18 +1529,18 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="C3" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -1543,34 +1549,34 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="B5" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="C5" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="C6" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -1581,7 +1587,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -1592,7 +1598,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -1601,23 +1607,23 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>180</v>
+        <v>261</v>
       </c>
       <c r="B10" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="C10" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -1626,34 +1632,34 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="B12" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="C12" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="B13" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="C13" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -1662,12 +1668,12 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -1676,12 +1682,12 @@
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -1692,7 +1698,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -1703,7 +1709,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>185</v>
+        <v>259</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -1712,12 +1718,12 @@
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>187</v>
+        <v>260</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -1726,12 +1732,12 @@
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -1740,12 +1746,12 @@
         <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -1756,18 +1762,18 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="B22" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="C22" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
@@ -1778,7 +1784,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
@@ -1789,7 +1795,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
@@ -1798,12 +1804,12 @@
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
@@ -1812,12 +1818,12 @@
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
@@ -1828,35 +1834,35 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="B28" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="C28" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="B29" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="C29" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="B30" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="C30" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1889,12 +1895,12 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>259</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -1905,7 +1911,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -1916,7 +1922,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1927,7 +1933,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1938,7 +1944,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1949,7 +1955,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -1960,7 +1966,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -1971,7 +1977,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -1982,7 +1988,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -1993,7 +1999,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -2004,10 +2010,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B12" t="s">
         <v>220</v>
-      </c>
-      <c r="B12" t="s">
-        <v>246</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -2023,8 +2029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2042,249 +2048,249 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>259</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" t="s">
         <v>221</v>
       </c>
-      <c r="B2" t="s">
-        <v>247</v>
-      </c>
       <c r="C2" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -2298,7 +2304,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2328,94 +2334,94 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="E5" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="F5" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2430,15 +2436,15 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="56" customWidth="1"/>
-    <col min="2" max="2" width="65.25" customWidth="1"/>
-    <col min="3" max="3" width="56" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.5" customWidth="1"/>
+    <col min="1" max="1" width="49.5" customWidth="1"/>
+    <col min="2" max="2" width="60.5" customWidth="1"/>
+    <col min="3" max="3" width="49.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2458,82 +2464,82 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" t="s">
-        <v>49</v>
-      </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>240</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>243</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>244</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>247</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>241</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>242</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>245</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>246</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2548,7 +2554,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2576,53 +2582,53 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>248</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>245</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2636,15 +2642,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="108.5" customWidth="1"/>
-    <col min="2" max="2" width="95.125" customWidth="1"/>
-    <col min="3" max="3" width="54.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="117.875" customWidth="1"/>
+    <col min="3" max="3" width="48.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.75" customWidth="1"/>
     <col min="5" max="6" width="23.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.25" bestFit="1" customWidth="1"/>
@@ -2668,94 +2674,94 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="B2" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="G2" t="s">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="H2" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="I2" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B4" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>252</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>253</v>
       </c>
       <c r="E4" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="F4" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B5" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C5" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D5" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="E5" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -2769,8 +2775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2801,88 +2807,88 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="B2" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="C2" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="F2" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="G2" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="E3" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="H3" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="C4" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="D4" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="E4" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="E5" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2931,157 +2937,157 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" t="s">
         <v>76</v>
-      </c>
-      <c r="B2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" t="s">
         <v>80</v>
       </c>
-      <c r="B4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F4" t="s">
-        <v>98</v>
-      </c>
       <c r="G4" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="F5" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="F6" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="H6" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="E7" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3095,7 +3101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
@@ -3131,196 +3137,196 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="E2" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="F2" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="G2" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" t="s">
         <v>101</v>
       </c>
-      <c r="B3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F3" t="s">
-        <v>119</v>
-      </c>
       <c r="G3" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="H3" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="I3" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="J3" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="E4" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="F4" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="G4" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="H4" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="E5" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="F5" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="G5" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="E6" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="F6" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="G6" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="F7" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="G7" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="H7" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="I7" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="J7" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" t="s">
+        <v>228</v>
+      </c>
+      <c r="D8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" t="s">
         <v>106</v>
-      </c>
-      <c r="B8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" t="s">
-        <v>258</v>
-      </c>
-      <c r="D8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E8" t="s">
-        <v>121</v>
-      </c>
-      <c r="F8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G8" t="s">
-        <v>123</v>
-      </c>
-      <c r="H8" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3363,58 +3369,58 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="C2" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="C3" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="C4" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="C5" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="D5" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/data/user.xlsx
+++ b/data/user.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" tabRatio="884" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" tabRatio="884" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="add_mgmt_user" sheetId="12" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="264">
   <si>
     <t>expect result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2029,7 +2029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -2775,8 +2775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2784,8 +2784,8 @@
     <col min="1" max="1" width="109.375" customWidth="1"/>
     <col min="2" max="2" width="111.625" customWidth="1"/>
     <col min="3" max="3" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.75" customWidth="1"/>
+    <col min="4" max="4" width="49.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.25" bestFit="1" customWidth="1"/>
@@ -2842,18 +2842,15 @@
         <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E3" t="s">
-        <v>137</v>
+        <v>53</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>136</v>
       </c>
       <c r="G3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H3" t="s">
         <v>230</v>
       </c>
     </row>
@@ -2868,9 +2865,6 @@
         <v>133</v>
       </c>
       <c r="D4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E4" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2885,9 +2879,6 @@
         <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E5" t="s">
         <v>139</v>
       </c>
     </row>
